--- a/iMSMS-Code-main/iMSMS_dataset/iMSMS_factors.xlsx
+++ b/iMSMS-Code-main/iMSMS_dataset/iMSMS_factors.xlsx
@@ -20,12 +20,164 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="122">
-  <si>
-    <t xml:space="preserve">Factors[Not_Understood_By_Shreeman = N, Unnecessary = U][Relevant dataset mentioned in brackets]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Range of Values[Categorical = C, Numerical = N]</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="241">
+  <si>
+    <t xml:space="preserve">Factors of iMSMS ID [Not_Understood_By_Shreeman = NS, Unnecessary = U][Relevant dataset mentioned in brackets]</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Notes for the rows indicated </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> or </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">U</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Range of Values[Categorical = </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, Numerical = </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">]</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Demography</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biometric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Microbiome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Food</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disease</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genetics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lifestyle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Childhood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interventions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intervention = Medication</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intervention = Therapy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MS related</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MS scores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allergies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fatty Acids Analysis in Body Fluids</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chemicals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mental Disorders</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Independent Variable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dependent Variable</t>
   </si>
   <si>
     <r>
@@ -41,24 +193,101 @@
     <r>
       <rPr>
         <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[U] </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
         <i val="true"/>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">[S1.1 features start here]</t>
-    </r>
+      </rPr>
+      <t xml:space="preserve">[S1.1 features start here] </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">I think this is irrelevant</t>
   </si>
   <si>
     <t xml:space="preserve">target_gene</t>
   </si>
   <si>
-    <t xml:space="preserve">study_accession</t>
-  </si>
-  <si>
-    <t xml:space="preserve">experiment_accession</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">16S rRNA, WGS</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[C]</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">study_accession</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[U]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">experiment_accession</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[U]</t>
+    </r>
   </si>
   <si>
     <r>
@@ -70,6 +299,17 @@
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">household</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[U]</t>
     </r>
     <r>
       <rPr>
@@ -98,99 +338,946 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">2 iMSMS ID’s can have the same household</t>
+  </si>
+  <si>
     <t xml:space="preserve">site</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">7 Unique Values </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[C]</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">ethnicity</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Caucasian/Hispanic, Asian, NAN, Black</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[C]</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">sex</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">M, F</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[C]</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">age</t>
   </si>
   <si>
-    <t xml:space="preserve">weight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">height</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">18.0 to 81.0</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[N]</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">weight[unmentioned in dataset, could be either kg/pound]</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">44.0 to 210.5</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[N]</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">height[unmentioned in dataset, most likely cm]</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">144.78 to 255.7</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[N]</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">bmi</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">16.16 to 66.58</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[N]</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">year_of_onset</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">54 Unique Values</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[N]</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">disease</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">MS, Control</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[C]</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">disease_course</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">RRMS, PPMS, SPMS, Control</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[C]</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">disease_duration</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">0.0 to 53.0</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[N]</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">treatment_status</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Treated, Control, Untreated</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[C]</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">treatments</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">7 Unique Values</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[C]</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">administration</t>
   </si>
   <si>
-    <t xml:space="preserve">disease_Course_Control</t>
-  </si>
-  <si>
-    <t xml:space="preserve">treated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">treatments_control</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Oral, Control, Subcutaneous, Infused, Untreated</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[C]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">disease_Course_Control</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[NS]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">RRMS, PMS, Control_RRMS, Control_PMS</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[C]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">treated</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[NS]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Treated, Treated_HHC, Untreated, Untreated_HHC</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[C]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">treatments_control</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[NS]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">14 Unique Values</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[C]</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">diet_no_special_needs</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">0, 1</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[C]</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">diet_special_needs</t>
   </si>
   <si>
-    <t xml:space="preserve">smps_year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">edss</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MSSS</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">27 unique values</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[C]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">smps_year</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[NS]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">27 unique values</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[C]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Edss</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[10 point scale for MS where 0 is no disability and 10 is death]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Range = 0.0 to 8.5, Mean = 1.3, Median = 0(because of control group most likely)</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[N]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">MSSS</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[Combines EDSS and disease duration]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Range = 0.0 to 9.87, Mean = 1.68, Median = 0(same reason as above)</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[N]</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">relapse_number</t>
   </si>
   <si>
-    <t xml:space="preserve">csf_results</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dmt</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">0.0 to 4.0</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[N]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">csf_results</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[CerebroSpinal Fluid?][NS]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Range = 1.0 to 3.0, Mean = 1.5, Median = 1</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[N]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">dmt</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[Disease-Modifying Therapies?][NS]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">0 or 1</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[C]</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">children_number</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1.0 to 4.0</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[N]</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">roommates</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1.0 to 2.0</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[N]</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">birth_method</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">NAN, Vaginal Delivery, Caesarean Section</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[C]</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">breastfeeding</t>
   </si>
   <si>
     <t xml:space="preserve">allergies</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">0 or 1</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[C]</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">allergy_specific</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">285 Unique Values</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[C]</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">asthma</t>
   </si>
   <si>
@@ -221,36 +1308,269 @@
     <t xml:space="preserve">ms_family</t>
   </si>
   <si>
-    <t xml:space="preserve">ocps_y_n</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">ocps_y_n</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[Oral Contraceptive Pills?][NS]</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">which_ocp</t>
   </si>
   <si>
-    <t xml:space="preserve">nsaids</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">47 Unique Values</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[C]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">nsaids</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[Non-Steroidal Anti-Inflammatory Drugs]</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">nsaids_specifics</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">264 Unique Values</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[C]</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">probiotics</t>
   </si>
   <si>
-    <t xml:space="preserve">rxmeds</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">rxmeds</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[Most likely prescription medication][NS]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Range = 1 to 3, Mean = 1.46, Median = 1</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[N]</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">rxmeds_number</t>
   </si>
   <si>
-    <t xml:space="preserve">otc_meds</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Range = 0 to 6, Mean = 1.38, Median = 1</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[N]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">otc_meds</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[Over the counter medications]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Yes, No</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[C]</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">otc_number</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Range = 0 to 6, Mean = 0.81, Median = 0</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[N]</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">smoke</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">formersmoker, nonsmoker, NAN, smoker</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[C]</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">recreational_drug</t>
   </si>
   <si>
@@ -263,10 +1583,105 @@
     <t xml:space="preserve">education</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">6 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">unique values</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[C]</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">occupation</t>
   </si>
   <si>
-    <t xml:space="preserve">vitamin D (IU)</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">622 unique values</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[C]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">vitamin D (IU)</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[IU = International Units]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Range = 0.0 to 800.0, Mean = 153.63, Median = 0</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[N]</t>
+    </r>
   </si>
   <si>
     <r>
@@ -306,112 +1721,889 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Range = 0.0 to 49.15, Mean = 5.21, Median = 2.965</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[N]</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">B1, B2 (mg)</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Range = 0.237 to 8.42, Mean = 1.48, Median = 1.32</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[N]</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">Beta-carotene (mcg)</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Range = 133.11 to 33538.03, Mean = 5802.4, Median = 4778.68</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[N]</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">Bread, pasta, rice (1)</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Range = 0.103 to 24.5, Mean = 4.72, Median = 4.25</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[N]</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">Calories (Kcal)</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Range = 402.46 to 9363.86, Mean = 1744.41, Median = 1623.34</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[N]</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">Carbohydrate (g)</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Range = 25.64 to 1033.26, Mean = 192.9, Median = 176.48</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[N]</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">Carbohydrate (g) as % of cals</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Range = 13.88 to 71.5, Mean = 44.26, Median = 44.295</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[N]</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">Cholesterol (mg)</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Range = 7.99 to 1289.2, Mean = 226.99, Median = 194.87</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[N]</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">Dietary Fiber (g)</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Range = 2.55 to 105.68, Mean = 17.61, Median = 16.125</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[N]</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">Fat (g)</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Range = 12.19 to 388.88, Mean = 72.55, Median = 67.815</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[N]</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">Fat (g) as % of cals</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Range = 15.5 to 66.97, Mean = 37.5, Median = 37.185</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[N]</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">Fruits, fruit juices (cups)</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Range = 0.01 to 9.58, Mean = 0.97, Median = 0.77</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[N]</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">Good oils, in foods ("teaspoons")</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Range = 0.0 to 15.49, Mean = 3.23, Median = 2.88</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[N]</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">Magnesium (mg)</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Range = 44.41 to 1447.69, Mean = 308.43, Median = 286.28</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[N]</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">Meat, eggs, or beans (1)</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Range = 0.298 to 33.96, Mean = 5.65, Median = 4.89</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[N]</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">Milk, cheese, yogurt (cups)</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Range = 0.0354 to 5.33, Mean = 1.1, Median = 0.926</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[N]</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">Monounsaturated fat (g)</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Range = 5.09 to 153.96, Mean = 29.11, Median = 27.095</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[N]</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">Niacin (mg)</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Range = 3.8 to 124.47 Mean = 21.55, Median = 19.035</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[N]</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">Polyunsaturated fat (g)</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Range = 2.52 to 82.83, Mean = 16.31, Median = 15.08</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[N]</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">Potassium (mg)</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Range = 444.22 to 11609.96, Mean = 2667.88, Median = 2538.405</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[N]</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">Protein (g)</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Range = 10.18 to 389.75, Mean = 72.6, Median = 65.34</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[N]</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">Protein (g) as % of cals</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Range = 7.42 to 32.15, Mean = 16.66, Median = 16.095</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[N]</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">Saturated fat (g)</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Range = 3.74 to 119.03, Mean = 21.67, Median = 19.9</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[N]</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">Saturated fat (g) as % of cals</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Range = 3.81 to 24.96, Mean = 11.17, Median = 11.01</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[N]</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">Sodium (salt) (mg)</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Range = 614.09 to 14958.18, Mean = 2930.79, Median = 2684.83</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[N]</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">Sweets % of cals (%)</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Range = 0.0 to 58.07, Mean = 11.92, Median = 9.93</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[N]</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">Vegetables group (cups)</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Range = 0.193 to 8.41, Mean = 2.01, Median = 1.73</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[N]</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">Vitamin B6 (mg)</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Range = 0.269 to 10.41, Mean = 1.9, Median = 1.685</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[N]</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">Whole grains (1)</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Range = 0.00097 to 5.34, Mean = 0.97, Median = 0.73</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[N]</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">without potatoes (cups)</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Range = 0.117 to 7.97, Mean = 1.77, Median = 1.48</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[N]</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">Vitamdietpairsumin A (RAE)</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Range = 64.85 to 8208.29, Mean = 1284.59, Median = 925</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[N]</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">Vitamin C (mg)</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Range = 9.45 to 3860.24, Mean = 203.1, Median = 118.795</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[N]</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">Vitamin E (mg)</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Range = 0.894 to 108.14, Mean = 14.6, Median = 9.29</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[N]</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">Folate (mcg)</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Range = 95.25 to 3423.31, Mean = 681.72, Median = 565.375</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[N]</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">Calcium (mg)</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Range = 92.7 to 3111.01, Mean = 878.5, Median = 758.18</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[N]</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">Iron (mg)</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Range = 2.51 to 144.41, Mean = 19.74, Median = 13.95</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[N]</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">Zinc (mg)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Range = 1.62 to 105.92, Mean = 16.16, Median = 11.245</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[N]</t>
+    </r>
   </si>
   <si>
     <r>
@@ -451,37 +2643,309 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Range = 1.04 to 5, Mean = 4.31, Median = 5</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[N]</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">GREEN_AND_BEAN</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Range = 0.0 to 5, Mean = 4.23, Median = 5</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[N]</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">TOTALFRUIT</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Range = 0.124 to 5, Mean = 3.5, Median = 3.846</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[N]</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">WHOLEFRUIT</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Range = 0.0366 to 5, Mean = 4.02, Median = 5</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[N]</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">WHOLEGRAIN</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Range = 0.0 to 10, Mean = 3.34, Median = 2.469</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[N]</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">TOTALDAIRY</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Range = 0.242 to 10, Mean = 5.33, Median = 5.014</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[N]</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">TOTPROT</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Range = 0.936 to 5, Mean = 4.73, Median = 5</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[N]</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">SEAPLANT_PROT</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Range = 0.209 to 5, Mean = 4.43, Median = 5</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[N]</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">FATTYACID</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Range = 0.0 to 10, Mean = 6.67, Median = 6.66</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[N]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Range = 0.0 to 10, Mean = 8.03, Median = 8.91</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[N]</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">REFINEDGRAIN</t>
   </si>
   <si>
     <t xml:space="preserve">ADDSUG</t>
   </si>
   <si>
-    <t xml:space="preserve">SFA</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Range = 0.0 to 10, Mean = 8.56, Median = 9.54</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[N]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">SFA</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[NS]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Range = 0.0 to 10, Mean = 6.01, Median = 6.24</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[N]</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">HEI2015_TOTAL_SCORE</t>
@@ -493,6 +2957,27 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Range = 29.81 to 96.14, Mean = 66.85, Median = 67.81</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[N]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">chao1</t>
@@ -511,6 +2996,27 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Range = 64.07 to 656.6, Mean = 246.17, Median = 233.04</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[N]</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">shannon</t>
   </si>
   <si>
@@ -520,6 +3026,27 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Range = 1.524 to 7.195, Mean = 5.25, Median = 5.359</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[N]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">weighted uniFrac distance</t>
@@ -538,12 +3065,16 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">Intentionally writing N/A for now</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ASVID</t>
     </r>
@@ -555,6 +3086,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">[S4 features]</t>
     </r>
@@ -565,6 +3097,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">[There are 7,271 features for ASVID]</t>
     </r>
@@ -576,6 +3109,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Relative abundance of 1000s of microbiomes in sample</t>
     </r>
@@ -587,11 +3121,58 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">[S6] </t>
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">fecal metabolites</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[S8.1, 8.2, 8.3]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">serum metabolites</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[S8.4, 8.5, 8.6]</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">NEED HELP WITH UNDERSTANDING DATASET 8</t>
   </si>
   <si>
@@ -603,6 +3184,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">[S5.3] </t>
     </r>
@@ -613,6 +3195,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">iMSMS_ID feature not present in this file</t>
     </r>
@@ -626,6 +3209,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">[S7] </t>
     </r>
@@ -636,6 +3220,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">iMSMS_ID feature not present in this file</t>
     </r>
@@ -688,7 +3273,14 @@
     </font>
     <font>
       <b val="true"/>
-      <i val="true"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -697,7 +3289,29 @@
     </font>
     <font>
       <b val="true"/>
-      <sz val="12"/>
+      <i val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <i val="true"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -714,22 +3328,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <i val="true"/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -743,25 +3341,13 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b val="true"/>
+      <i val="true"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <i val="true"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -826,7 +3412,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -842,27 +3436,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -883,16 +3469,30 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N134"/>
+  <dimension ref="A1:V134"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D25" activeCellId="0" sqref="D25"/>
+      <selection pane="topLeft" activeCell="G27" activeCellId="0" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="85.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="62.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="73.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="14.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="14.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="27.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="24.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="14.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="13.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="35.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="14.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="18.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="23.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="20.5"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -902,654 +3502,1955 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="2" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>2</v>
+        <v>22</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>3</v>
+        <v>24</v>
+      </c>
+      <c r="B3" s="0"/>
+      <c r="C3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="4" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>4</v>
+        <v>27</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>5</v>
+        <v>28</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="6" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>6</v>
+        <v>29</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>7</v>
+        <v>31</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="U7" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>8</v>
+        <v>33</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="U8" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>9</v>
+        <v>35</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="U9" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>10</v>
+        <v>37</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="U10" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>39</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="U11" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>41</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="U12" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>43</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="U13" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="O14" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="V14" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>47</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="O15" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="V15" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>49</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="O16" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="V16" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>51</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="O17" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="V17" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>53</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="O18" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="U18" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>55</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="O19" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="U19" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>57</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="O20" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="U20" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>59</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O21" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="V21" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>61</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="O22" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="U22" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>63</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="O23" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="U23" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>65</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q24" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="U24" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>67</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q25" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="U25" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>69</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="O26" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="V26" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>71</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="O27" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="P27" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="V27" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>73</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="O28" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="P28" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="V28" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>75</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="O29" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="V29" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>77</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="O30" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="P30" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="V30" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>79</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="L31" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="N31" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="O31" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="U31" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>81</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="J32" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="U32" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>83</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="J33" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="U33" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>85</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="K34" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="U34" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>87</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="K35" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="U35" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>88</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q36" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="U36" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>90</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q37" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="U37" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>92</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H38" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="U38" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>93</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H39" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="U39" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>94</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H40" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="U40" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>95</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H41" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="T41" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="U41" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>96</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H42" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="T42" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="U42" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>97</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H43" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="T43" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="U43" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>98</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H44" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="T44" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="U44" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>99</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H45" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="T45" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="U45" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>100</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H46" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="U46" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>101</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="D47" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="O47" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="U47" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>102</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="L48" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="M48" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="O48" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="U48" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B49" s="6"/>
+      <c r="C49" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="L49" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="M49" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="O49" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="U49" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>105</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="L50" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="M50" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="O50" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="U50" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>106</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L51" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="M51" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="O51" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="U51" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>108</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="L52" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="M52" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="O52" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="U52" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>109</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="L53" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="M53" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="O53" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="U53" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B54" s="6"/>
+      <c r="C54" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="L54" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="M54" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="O54" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="U54" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>113</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="L55" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="M55" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="O55" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="U55" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>115</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="L56" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="M56" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="O56" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="U56" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>117</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="J57" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="U57" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="J58" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="U58" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>120</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="J59" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="U59" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>121</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="J60" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="U60" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>122</v>
+      </c>
+      <c r="C61" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="D61" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="U61" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="4" t="s">
-        <v>63</v>
+        <v>124</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D62" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="U62" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B63" s="6"/>
+      <c r="C63" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="J63" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="S63" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="U63" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>128</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="G64" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="U64" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>130</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="G65" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="S65" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="U65" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>132</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="G66" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="S66" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="U66" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>134</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="G67" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="U67" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>136</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="G68" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="U68" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>138</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="G69" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="U69" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>140</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="G70" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="U70" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>142</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="G71" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="U71" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>144</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="G72" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="U72" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>146</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="G73" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="U73" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>148</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="G74" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="U74" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>150</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G75" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="U75" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>152</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="G76" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="U76" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>154</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="G77" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="S77" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="U77" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>156</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="G78" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="U78" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>158</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="G79" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="U79" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>160</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="G80" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="U80" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>162</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="G81" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="S81" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="U81" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>164</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="G82" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="U82" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>166</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="G83" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="S83" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="U83" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>168</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="G84" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="U84" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>170</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="G85" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="U85" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>172</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="G86" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="U86" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>174</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="G87" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="U87" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>176</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="G88" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="S88" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="U88" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>178</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="G89" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="U89" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>180</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="G90" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="U90" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>182</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="G91" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="S91" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="U91" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>184</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="G92" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="U92" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>186</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="G93" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="U93" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>188</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="G94" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="S94" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="U94" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>190</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="G95" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="S95" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="U95" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>192</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="G96" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="S96" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="U96" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>194</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="G97" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="S97" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="U97" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>196</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="G98" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="S98" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="U98" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>198</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="G99" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="S99" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="U99" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>100</v>
+        <v>200</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="G100" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="S100" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="U100" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B101" s="6"/>
-      <c r="C101" s="6"/>
-      <c r="D101" s="6"/>
-      <c r="E101" s="6"/>
-      <c r="F101" s="6"/>
-      <c r="G101" s="6"/>
-      <c r="H101" s="6"/>
-      <c r="I101" s="6"/>
-      <c r="J101" s="6"/>
-      <c r="K101" s="6"/>
-      <c r="L101" s="6"/>
-      <c r="M101" s="6"/>
-      <c r="N101" s="6"/>
-    </row>
-    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="4" t="s">
-        <v>113</v>
+      <c r="A101" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="B101" s="7"/>
+      <c r="C101" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="D101" s="9"/>
+      <c r="E101" s="9"/>
+      <c r="F101" s="9"/>
+      <c r="G101" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H101" s="9"/>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c r="L101" s="9"/>
+      <c r="M101" s="9"/>
+      <c r="N101" s="9"/>
+      <c r="O101" s="9"/>
+      <c r="U101" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="B102" s="6"/>
+      <c r="C102" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="G102" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="U102" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="B103" s="6"/>
+      <c r="C103" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="G103" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="U103" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="B104" s="6"/>
+      <c r="C104" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="G104" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="U104" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="B105" s="6"/>
+      <c r="C105" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="G105" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="U105" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="B106" s="6"/>
+      <c r="C106" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="G106" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="U106" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="B107" s="6"/>
+      <c r="C107" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="G107" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="U107" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="B108" s="6"/>
+      <c r="C108" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="G108" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="U108" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="B109" s="6"/>
+      <c r="C109" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="G109" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="U109" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B110" s="6"/>
+      <c r="C110" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="G110" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="U110" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="B111" s="6"/>
+      <c r="C111" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="G111" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="U111" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="B112" s="6"/>
+      <c r="C112" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="G112" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="U112" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B113" s="6"/>
+      <c r="C113" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="G113" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="U113" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="B114" s="6"/>
+      <c r="C114" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="G114" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="U114" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>228</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="F115" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="U115" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="V115" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>115</v>
+        <v>230</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="F116" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="U116" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="V116" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>116</v>
+        <v>232</v>
+      </c>
+      <c r="C117" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="I117" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="U117" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="V117" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="7" t="s">
-        <v>117</v>
+      <c r="A118" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B118" s="2"/>
+      <c r="C118" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="I118" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="U118" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="8" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="4"/>
+      <c r="A119" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="B119" s="6"/>
+      <c r="C119" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="F119" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="U119" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="V119" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="R120" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="S120" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="V120" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B121" s="6"/>
+      <c r="R121" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="S121" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="V121" s="0" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="4"/>
+      <c r="A122" s="6"/>
+      <c r="B122" s="6"/>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="4"/>
+      <c r="A123" s="6"/>
+      <c r="B123" s="6"/>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="4"/>
+      <c r="A124" s="6"/>
+      <c r="B124" s="6"/>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="4"/>
+      <c r="A125" s="6"/>
+      <c r="B125" s="6"/>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="4"/>
+      <c r="A126" s="6"/>
+      <c r="B126" s="6"/>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="4"/>
+      <c r="A127" s="6"/>
+      <c r="B127" s="6"/>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="4"/>
+      <c r="A128" s="6"/>
+      <c r="B128" s="6"/>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="9" t="s">
-        <v>119</v>
-      </c>
+      <c r="A130" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="B130" s="11"/>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="10"/>
+      <c r="A131" s="12"/>
+      <c r="B131" s="12"/>
     </row>
     <row r="132" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="11" t="s">
-        <v>120</v>
-      </c>
+      <c r="A132" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="B132" s="12"/>
     </row>
     <row r="133" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="11" t="s">
-        <v>121</v>
-      </c>
+      <c r="A133" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="B133" s="12"/>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="12"/>
+      <c r="A134" s="11"/>
+      <c r="B134" s="11"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
